--- a/Data/ExperimentalResults_4.xlsx
+++ b/Data/ExperimentalResults_4.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JupyterN\VSA_concepts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D1EBB-B3C7-4535-9489-CFD7DB88C0A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62B334-1620-4B99-8D26-DC12B1B52FD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16390" windowHeight="8195" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Results" sheetId="3" r:id="rId3"/>
-    <sheet name="Results 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Results" sheetId="3" r:id="rId4"/>
+    <sheet name="Results 2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Comparison!$A$1:$D$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Summary!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Summary!$A$1:$C$69</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="217">
   <si>
     <t>concept 1</t>
   </si>
@@ -1071,7 +1072,7 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1161,27 +1162,27 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(E2:X2)</f>
-        <v>8.3650000000000002</v>
+        <v>6.875</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D33" si="1">_xlfn.STDEV.S(E2:X2)</f>
-        <v>1.606327947115469</v>
+        <f>_xlfn.STDEV.S(E2:X2)/2</f>
+        <v>1.0817718165851311</v>
       </c>
       <c r="E2" s="7">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1190,25 +1191,25 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1217,56 +1218,56 @@
         <v>10</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" si="0"/>
-        <v>8.1900000000000013</v>
+        <v>8.3650000000000002</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="1"/>
-        <v>1.7308044980662345</v>
+        <f t="shared" ref="D3:D65" si="1">_xlfn.STDEV.S(E3:X3)/2</f>
+        <v>0.8031639735577345</v>
       </c>
       <c r="E3" s="7">
-        <v>8.8000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>9</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1278,28 +1279,28 @@
         <v>10</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3">
         <v>9</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3">
         <v>10</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T3">
         <v>8</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3">
         <v>9</v>
@@ -1308,32 +1309,32 @@
         <v>9</v>
       </c>
       <c r="X3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
-        <v>7.8250000000000002</v>
+        <v>7.2050000000000001</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>2.266895628270893</v>
+        <v>1.2955871459039643</v>
       </c>
       <c r="E4" s="7">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -1345,22 +1346,22 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>10</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1375,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X4">
         <v>7</v>
@@ -1389,39 +1390,39 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>7.68</v>
+        <v>8.1900000000000013</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>2.1436810446175611</v>
+        <v>0.86540224903311724</v>
       </c>
       <c r="E5" s="7">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1430,28 +1431,28 @@
         <v>10</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>9</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>10</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T5">
         <v>8</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>9</v>
@@ -1460,41 +1461,41 @@
         <v>9</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>7.5750000000000002</v>
+        <v>6.9849999999999994</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>1.711224553845641</v>
+        <v>1.1406686635478345</v>
       </c>
       <c r="E6" s="7">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1506,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -1518,53 +1519,53 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>8</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>7.3450000000000006</v>
+        <v>7.68</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>1.9253092711233877</v>
+        <v>1.0718405223087806</v>
       </c>
       <c r="E7" s="7">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>9</v>
@@ -1576,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -1585,59 +1586,59 @@
         <v>4</v>
       </c>
       <c r="O7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>10</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>7.2050000000000001</v>
+        <v>7.8250000000000002</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>2.5911742918079286</v>
+        <v>1.1334478141354465</v>
       </c>
       <c r="E8" s="7">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -1649,22 +1650,22 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -1679,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X8">
         <v>7</v>
@@ -1693,36 +1694,36 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>6.9849999999999994</v>
+        <v>7.5750000000000002</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>2.2813373270956689</v>
+        <v>0.85561227692282049</v>
       </c>
       <c r="E9" s="7">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1734,10 +1735,10 @@
         <v>10</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -1746,123 +1747,123 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>8</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>6.875</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>2.1635436331702622</v>
+        <v>0.91081224594777166</v>
       </c>
       <c r="E10" s="7">
-        <v>9.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>6.8599999999999994</v>
+        <v>7.3450000000000006</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>1.8216244918955433</v>
+        <v>0.96265463556169384</v>
       </c>
       <c r="E11" s="7">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>8</v>
@@ -1871,95 +1872,95 @@
         <v>7</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>6.5950000000000006</v>
+        <v>5.9249999999999998</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>2.4444297580632712</v>
+        <v>1.2201029939269366</v>
       </c>
       <c r="E12" s="7">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>9</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -1968,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -1983,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X12">
         <v>8</v>
@@ -1997,75 +1998,75 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>6.5400000000000009</v>
+        <v>6.2050000000000001</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>2.0469232366754979</v>
+        <v>0.86882785527701822</v>
       </c>
       <c r="E13" s="7">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>8</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>7</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <v>9</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X13">
         <v>7</v>
@@ -2073,212 +2074,212 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>6.4950000000000001</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>1.8225127246685924</v>
+        <v>1.2125305205057291</v>
       </c>
       <c r="E14" s="7">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>9</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
         <v>5</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>6.2050000000000001</v>
+        <v>5.71</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>1.7376557105540364</v>
+        <v>0.78100812045107804</v>
       </c>
       <c r="E15" s="7">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>6</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>5.9399999999999995</v>
+        <v>5.5549999999999997</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>2.3414795142792686</v>
+        <v>1.0578621689147665</v>
       </c>
       <c r="E16" s="7">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>8</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>5</v>
@@ -2287,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X16">
         <v>5</v>
@@ -2304,36 +2305,36 @@
         <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>5.9249999999999998</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>2.4402059878538731</v>
+        <v>0.91125636233429619</v>
       </c>
       <c r="E17" s="7">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>7</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -2342,326 +2343,326 @@
         <v>9</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17">
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>7</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>5.71</v>
+        <v>3.0300000000000002</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
-        <v>1.5620162409021561</v>
+        <v>0.87915928740563232</v>
       </c>
       <c r="E18" s="7">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>5.5549999999999997</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
-        <v>2.115724337829533</v>
+        <v>0.93286133115157821</v>
       </c>
       <c r="E19" s="7">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>5</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>5.5250000000000004</v>
+        <v>3.07</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
-        <v>2.4250610410114581</v>
+        <v>0.92239676358586831</v>
       </c>
       <c r="E20" s="7">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>5.0350000000000001</v>
+        <v>3.8649999999999998</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>2.1892740926233016</v>
+        <v>1.0719233819831089</v>
       </c>
       <c r="E21" s="7">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>6</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -2670,308 +2671,308 @@
         <v>4</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X21">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>4.835</v>
+        <v>3.96</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>2.2046064214921004</v>
+        <v>0.94177883200943358</v>
       </c>
       <c r="E22" s="7">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
-        <v>4.83</v>
+        <v>6.5400000000000009</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>2.1099014693881597</v>
+        <v>1.023461618337749</v>
       </c>
       <c r="E23" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>6</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>8</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>2.2028689427533741</v>
+        <v>1.0946370463116508</v>
       </c>
       <c r="E24" s="7">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <v>6</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L24">
         <v>6</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>4</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>4</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>4.6875</v>
+        <v>4.83</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
-        <v>2.4667192680498569</v>
+        <v>1.0549507346940799</v>
       </c>
       <c r="E25" s="7">
-        <v>1.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>6</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>6</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V25">
         <v>4</v>
@@ -2980,108 +2981,108 @@
         <v>4</v>
       </c>
       <c r="X25">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" si="0"/>
-        <v>4.1899999999999995</v>
+        <v>3.875</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="1"/>
-        <v>2.8295247880723351</v>
+        <v>0.76894921466689992</v>
       </c>
       <c r="E26" s="7">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <v>5</v>
       </c>
       <c r="U26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="0"/>
-        <v>3.9850000000000003</v>
+        <v>3.5149999999999997</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="1"/>
-        <v>2.1531555789975836</v>
+        <v>0.85367240727773841</v>
       </c>
       <c r="E27" s="7">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3090,92 +3091,92 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27">
         <v>5</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>3.96</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="1"/>
-        <v>1.8835576640188672</v>
+        <v>0.93110008507198172</v>
       </c>
       <c r="E28" s="7">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -3187,180 +3188,180 @@
         <v>3</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" si="0"/>
-        <v>3.875</v>
+        <v>1.9</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>1.5378984293337998</v>
+        <v>0.70524351897244086</v>
       </c>
       <c r="E29" s="7">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>3</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C30" s="8">
         <f t="shared" si="0"/>
-        <v>3.8649999999999998</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="1"/>
-        <v>2.1438467639662178</v>
+        <v>0.87936505203290993</v>
       </c>
       <c r="E30" s="7">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -3368,30 +3369,30 @@
         <v>42</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C31" s="8">
         <f t="shared" si="0"/>
-        <v>3.7600000000000002</v>
+        <v>3.59</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="1"/>
-        <v>1.8622001701439634</v>
+        <v>0.99126447689700581</v>
       </c>
       <c r="E31" s="7">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>8</v>
@@ -3400,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -3409,16 +3410,16 @@
         <v>2</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S31">
         <v>3</v>
@@ -3427,13 +3428,13 @@
         <v>5</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>3</v>
@@ -3441,21 +3442,21 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.9850000000000003</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="1"/>
-        <v>1.9825289537940116</v>
+        <v>1.0765777894987918</v>
       </c>
       <c r="E32" s="7">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3464,77 +3465,77 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>5</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U32">
         <v>1</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
-        <v>1.9049796241485242</v>
+        <v>0.65599963896010605</v>
       </c>
       <c r="E33" s="7">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3543,52 +3544,52 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -3596,54 +3597,54 @@
         <v>42</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" ref="C34:C65" si="2">AVERAGE(E34:X34)</f>
-        <v>3.5149999999999997</v>
+        <v>3.0100000000000002</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D65" si="3">_xlfn.STDEV.S(E34:X34)</f>
-        <v>1.7073448145554768</v>
+        <f t="shared" si="1"/>
+        <v>0.79503392843854204</v>
       </c>
       <c r="E34" s="7">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -3652,16 +3653,16 @@
         <v>3</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U34">
         <v>2</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X34">
         <v>3</v>
@@ -3669,264 +3670,264 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C35" s="8">
         <f t="shared" si="2"/>
-        <v>3.1350000000000002</v>
+        <v>3.55</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="3"/>
-        <v>1.601405632561594</v>
+        <f t="shared" si="1"/>
+        <v>0.95248981207426209</v>
       </c>
       <c r="E35" s="7">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C36" s="8">
         <f t="shared" si="2"/>
-        <v>3.07</v>
+        <v>6.5950000000000006</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="3"/>
-        <v>1.8447935271717366</v>
+        <f t="shared" si="1"/>
+        <v>1.2222148790316356</v>
       </c>
       <c r="E36" s="7">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X36">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" si="2"/>
-        <v>3.0449999999999999</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="3"/>
-        <v>1.7587301040658199</v>
+        <f t="shared" si="1"/>
+        <v>1.1707397571396343</v>
       </c>
       <c r="E37" s="7">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P37">
         <v>2</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" si="2"/>
-        <v>3.0300000000000002</v>
+        <v>3.1350000000000002</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="3"/>
-        <v>1.7583185748112646</v>
+        <f t="shared" si="1"/>
+        <v>0.80070281628079698</v>
       </c>
       <c r="E38" s="7">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3935,13 +3936,13 @@
         <v>2</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -3953,74 +3954,74 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U38">
         <v>1</v>
       </c>
       <c r="V38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="2"/>
-        <v>3.0100000000000002</v>
+        <v>2.73</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="3"/>
-        <v>1.5900678568770841</v>
+        <f t="shared" si="1"/>
+        <v>0.95766986949959332</v>
       </c>
       <c r="E39" s="7">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -4029,41 +4030,41 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="2"/>
-        <v>2.95</v>
+        <v>1.425</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="3"/>
-        <v>1.8771478925557026</v>
+        <f t="shared" si="1"/>
+        <v>0.31700697319243881</v>
       </c>
       <c r="E40" s="7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4075,28 +4076,28 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -4105,147 +4106,147 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C41" s="8">
         <f t="shared" si="2"/>
-        <v>2.9249999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="3"/>
-        <v>1.8657226623031564</v>
+        <f t="shared" si="1"/>
+        <v>0.79993420782093394</v>
       </c>
       <c r="E41" s="7">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C42" s="8">
         <f t="shared" si="2"/>
-        <v>2.92</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="3"/>
-        <v>2.0829129400408157</v>
+        <f t="shared" si="1"/>
+        <v>0.96048233497002622</v>
       </c>
       <c r="E42" s="7">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -4257,71 +4258,71 @@
         <v>1</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C43" s="8">
         <f t="shared" si="2"/>
-        <v>2.7800000000000002</v>
+        <v>1.2650000000000001</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="3"/>
-        <v>2.7908874272494311</v>
+        <f t="shared" si="1"/>
+        <v>0.3678797715501485</v>
       </c>
       <c r="E43" s="7">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -4336,16 +4337,16 @@
         <v>1</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X43">
         <v>1</v>
@@ -4353,21 +4354,21 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" si="2"/>
-        <v>2.73</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="3"/>
-        <v>1.9153397389991866</v>
+        <f t="shared" si="1"/>
+        <v>0.53849204656199545</v>
       </c>
       <c r="E44" s="7">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -4376,31 +4377,31 @@
         <v>2</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -4409,74 +4410,74 @@
         <v>1</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U44">
         <v>1</v>
       </c>
       <c r="V44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C45" s="8">
         <f t="shared" si="2"/>
-        <v>2.59</v>
+        <v>1.56</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="3"/>
-        <v>1.8507182105163509</v>
+        <f t="shared" si="1"/>
+        <v>0.47528384870738594</v>
       </c>
       <c r="E45" s="7">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4485,53 +4486,53 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>1</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C46" s="8">
         <f t="shared" si="2"/>
-        <v>2.42</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="3"/>
-        <v>1.5998684156418679</v>
+        <f t="shared" si="1"/>
+        <v>0.78614231335179063</v>
       </c>
       <c r="E46" s="7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4540,19 +4541,19 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -4564,16 +4565,16 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>1</v>
@@ -4581,78 +4582,78 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C47" s="8">
         <f t="shared" si="2"/>
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="3"/>
-        <v>2.3981571872454155</v>
+        <f t="shared" si="1"/>
+        <v>1.101434471376687</v>
       </c>
       <c r="E47" s="7">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
@@ -4660,27 +4661,27 @@
         <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C48" s="8">
         <f t="shared" si="2"/>
-        <v>2.3600000000000003</v>
+        <v>2.95</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="3"/>
-        <v>1.6866035630661309</v>
+        <f t="shared" si="1"/>
+        <v>0.93857394627785129</v>
       </c>
       <c r="E48" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4692,16 +4693,16 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -4713,77 +4714,77 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C49" s="8">
         <f t="shared" si="2"/>
-        <v>2.3199999999999998</v>
+        <v>4.194</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="3"/>
-        <v>1.9209646699400524</v>
+        <f t="shared" si="1"/>
+        <v>1.4130113420038706</v>
       </c>
       <c r="E49" s="7">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>2</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -4792,16 +4793,16 @@
         <v>1</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W49">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X49">
         <v>1</v>
@@ -4809,54 +4810,54 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C50" s="8">
         <f t="shared" si="2"/>
-        <v>2.3149999999999999</v>
+        <v>2.7890000000000001</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="3"/>
-        <v>1.3119992779202121</v>
+        <f t="shared" si="1"/>
+        <v>1.3935848320825419</v>
       </c>
       <c r="E50" s="7">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -4865,74 +4866,74 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" si="2"/>
-        <v>2.0100000000000002</v>
+        <v>4.6859999999999999</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="3"/>
-        <v>1.0769840931239909</v>
+        <f t="shared" si="1"/>
+        <v>1.2343039803020461</v>
       </c>
       <c r="E51" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.72</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -4941,47 +4942,47 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C52" s="8">
         <f t="shared" si="2"/>
-        <v>1.9550000000000001</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="3"/>
-        <v>1.5722846267035813</v>
+        <f t="shared" si="1"/>
+        <v>1.0368589966564252</v>
       </c>
       <c r="E52" s="7">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -4996,19 +4997,19 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -5017,74 +5018,74 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C53" s="8">
         <f t="shared" si="2"/>
-        <v>1.9</v>
+        <v>2.5804999999999998</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="3"/>
-        <v>1.4104870379448817</v>
+        <f t="shared" si="1"/>
+        <v>0.92773418805399799</v>
       </c>
       <c r="E53" s="7">
-        <v>4</v>
+        <v>1.61</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -5093,41 +5094,41 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>1</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" si="2"/>
-        <v>1.8199999999999998</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="3"/>
-        <v>1.3516461698318289</v>
+        <f t="shared" si="1"/>
+        <v>0.83772813075163688</v>
       </c>
       <c r="E54" s="7">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -5136,10 +5137,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -5148,16 +5149,16 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -5169,13 +5170,13 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V54">
         <v>1</v>
@@ -5184,83 +5185,83 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" si="2"/>
-        <v>1.56</v>
+        <v>4.8239999999999998</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="3"/>
-        <v>0.95056769741477187</v>
+        <f t="shared" si="1"/>
+        <v>1.1107778213581021</v>
       </c>
       <c r="E55" s="7">
-        <v>2.2000000000000002</v>
+        <v>1.48</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R55">
         <v>1</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
@@ -5268,18 +5269,18 @@
         <v>24</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" si="2"/>
-        <v>1.4650000000000001</v>
+        <v>2.371</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="3"/>
-        <v>1.1868911181383865</v>
+        <f t="shared" si="1"/>
+        <v>1.2007869130392435</v>
       </c>
       <c r="E56" s="7">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -5288,22 +5289,22 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -5327,13 +5328,13 @@
         <v>2</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X56">
         <v>1</v>
@@ -5341,54 +5342,54 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" si="2"/>
-        <v>1.425</v>
+        <v>1.8189999999999997</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" si="3"/>
-        <v>0.63401394638487762</v>
+        <f t="shared" si="1"/>
+        <v>0.67599030668852222</v>
       </c>
       <c r="E57" s="7">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -5397,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -5412,26 +5413,26 @@
         <v>1</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" si="2"/>
-        <v>1.31</v>
+        <v>1.4664999999999999</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" si="3"/>
-        <v>0.56745043836444442</v>
+        <f t="shared" si="1"/>
+        <v>0.59334527757542044</v>
       </c>
       <c r="E58" s="7">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -5446,22 +5447,22 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -5473,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <v>2</v>
@@ -5488,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
@@ -5496,24 +5497,24 @@
         <v>26</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" si="2"/>
-        <v>1.2650000000000001</v>
+        <v>1.214</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="3"/>
-        <v>0.73575954310029701</v>
+        <f t="shared" si="1"/>
+        <v>0.44666129873705618</v>
       </c>
       <c r="E59" s="7">
-        <v>2.2999999999999998</v>
+        <v>1.28</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5531,13 +5532,13 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -5569,21 +5570,21 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" si="2"/>
-        <v>1.2275</v>
+        <v>1.3115000000000001</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="3"/>
-        <v>0.89640730286604609</v>
+        <f t="shared" si="1"/>
+        <v>0.28359197431298511</v>
       </c>
       <c r="E60" s="7">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -5604,16 +5605,16 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -5625,10 +5626,10 @@
         <v>1</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -5640,26 +5641,26 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" s="8">
         <f t="shared" si="2"/>
-        <v>1.1575</v>
+        <v>1.1105</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="3"/>
-        <v>0.36464654840428418</v>
+        <f t="shared" si="1"/>
+        <v>0.22360370842419547</v>
       </c>
       <c r="E61" s="7">
-        <v>1.1499999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -5674,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5692,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="P61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -5704,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U61">
         <v>1</v>
@@ -5721,21 +5722,21 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8">
         <f t="shared" si="2"/>
-        <v>1.105</v>
+        <v>1.157</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" si="3"/>
-        <v>0.30689446154389233</v>
+        <f t="shared" si="1"/>
+        <v>0.18233211456021664</v>
       </c>
       <c r="E62" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -5750,13 +5751,13 @@
         <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -5768,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -5797,21 +5798,21 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C63" s="8">
         <f t="shared" si="2"/>
-        <v>1.105</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="3"/>
-        <v>0.44659530720894558</v>
+        <f t="shared" si="1"/>
+        <v>0.15345494795747558</v>
       </c>
       <c r="E63" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -5832,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5856,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U63">
         <v>1</v>
@@ -5880,14 +5881,14 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" si="2"/>
-        <v>1.06</v>
+        <v>1.0515000000000001</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="3"/>
-        <v>0.22571523745873348</v>
+        <f t="shared" si="1"/>
+        <v>0.11167710739354524</v>
       </c>
       <c r="E64" s="7">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -5959,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65" s="7">
@@ -6025,7 +6026,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:X65">
-    <sortCondition descending="1" ref="C1"/>
+    <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6033,6 +6034,381 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1FC8C4-D23E-4DDB-A133-0506FFE041E4}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.22571523745873348</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.105</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.30689446154389233</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.1575</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.36464654840428418</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.105</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.44659530720894558</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.56745043836444442</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.2275</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.89640730286604609</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="F8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.1868911181383865</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="F9">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.8199999999999998</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.3516461698318289</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="F10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.6944180805158293</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.8507182105163509</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2.0829129400408157</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="F13">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.835</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.2046064214921004</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.38</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2.3981571872454155</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="F15">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.6875</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2.4667192680498569</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="F16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.7908874272494311</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="F17">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4.1899999999999995</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.8295247880723351</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F18">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E19">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
@@ -6813,7 +7189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM31"/>
   <sheetViews>
@@ -12950,7 +13326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
